--- a/clients.xlsx
+++ b/clients.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t xml:space="preserve">CORREO</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">ULTIMO ENVIO</t>
   </si>
   <si>
+    <t xml:space="preserve">TEST</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cliente-01@gmail.com</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cliente 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si</t>
   </si>
 </sst>
 </file>
@@ -251,7 +257,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -339,22 +345,21 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1021" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="17.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -388,19 +393,22 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6" t="n">
         <v>18495</v>
@@ -416,23 +424,23 @@
         <v>100</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="1"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6" t="n">
         <v>18495</v>
@@ -448,23 +456,23 @@
         <v>98</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>18495</v>
@@ -480,23 +488,23 @@
         <v>100</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>18495</v>
@@ -512,22 +520,23 @@
         <v>89</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="4"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>18495</v>
@@ -543,23 +552,23 @@
         <v>33</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>18495</v>
@@ -575,23 +584,23 @@
         <v>999</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>18495</v>
@@ -607,23 +616,23 @@
         <v>100</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>18495</v>
@@ -632,16 +641,17 @@
         <v>45290</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getMround(G9,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J9" s="4"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
@@ -654,6 +664,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
@@ -666,6 +677,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
@@ -678,6 +690,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
@@ -690,6 +703,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
@@ -702,6 +716,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
@@ -714,6 +729,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
@@ -726,6 +742,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
@@ -738,6 +755,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
@@ -750,6 +768,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
@@ -762,6 +781,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/clients.xlsx
+++ b/clients.xlsx
@@ -345,10 +345,10 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.21"/>

--- a/clients.xlsx
+++ b/clients.xlsx
@@ -644,7 +644,7 @@
       <c r="J2" s="14" t="n"/>
       <c r="K2" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:20:54</t>
+          <t>2023-12-28 16:28:53</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       <c r="J3" s="14" t="n"/>
       <c r="K3" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:20:54</t>
+          <t>2023-12-28 16:28:53</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       <c r="J4" s="14" t="n"/>
       <c r="K4" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:20:54</t>
+          <t>2023-12-28 16:28:53</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="J5" s="14" t="n"/>
       <c r="K5" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:20:54</t>
+          <t>2023-12-28 16:28:53</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
       <c r="J6" s="14" t="n"/>
       <c r="K6" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:20:54</t>
+          <t>2023-12-28 16:28:53</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="J7" s="14" t="n"/>
       <c r="K7" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:20:54</t>
+          <t>2023-12-28 16:28:53</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       <c r="J8" s="14" t="n"/>
       <c r="K8" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:20:54</t>
+          <t>2023-12-28 16:28:53</t>
         </is>
       </c>
     </row>

--- a/clients.xlsx
+++ b/clients.xlsx
@@ -644,7 +644,7 @@
       <c r="J2" s="14" t="n"/>
       <c r="K2" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:28:53</t>
+          <t>2023-12-28 16:34:00</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       <c r="J3" s="14" t="n"/>
       <c r="K3" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:28:53</t>
+          <t>2023-12-28 16:34:00</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       <c r="J4" s="14" t="n"/>
       <c r="K4" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:28:53</t>
+          <t>2023-12-28 16:34:00</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="J5" s="14" t="n"/>
       <c r="K5" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:28:53</t>
+          <t>2023-12-28 16:34:00</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
       <c r="J6" s="14" t="n"/>
       <c r="K6" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:28:53</t>
+          <t>2023-12-28 16:34:00</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="J7" s="14" t="n"/>
       <c r="K7" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:28:53</t>
+          <t>2023-12-28 16:34:00</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       <c r="J8" s="14" t="n"/>
       <c r="K8" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:28:53</t>
+          <t>2023-12-28 16:34:00</t>
         </is>
       </c>
     </row>

--- a/clients.xlsx
+++ b/clients.xlsx
@@ -644,7 +644,7 @@
       <c r="J2" s="14" t="n"/>
       <c r="K2" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:34:00</t>
+          <t>2023-12-28 17:05:59</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       <c r="J3" s="14" t="n"/>
       <c r="K3" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:34:00</t>
+          <t>2023-12-28 17:05:59</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       <c r="J4" s="14" t="n"/>
       <c r="K4" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:34:00</t>
+          <t>2023-12-28 17:05:59</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="J5" s="14" t="n"/>
       <c r="K5" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:34:00</t>
+          <t>2023-12-28 17:05:59</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
       <c r="J6" s="14" t="n"/>
       <c r="K6" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:34:00</t>
+          <t>2023-12-28 17:05:59</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="J7" s="14" t="n"/>
       <c r="K7" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:34:00</t>
+          <t>2023-12-28 17:05:59</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       <c r="J8" s="14" t="n"/>
       <c r="K8" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:34:00</t>
+          <t>2023-12-28 17:05:59</t>
         </is>
       </c>
     </row>

--- a/clients.xlsx
+++ b/clients.xlsx
@@ -644,7 +644,7 @@
       <c r="J2" s="14" t="n"/>
       <c r="K2" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:05:59</t>
+          <t>2023-12-28 17:50:45</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       <c r="J3" s="14" t="n"/>
       <c r="K3" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:05:59</t>
+          <t>2023-12-28 17:50:45</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       <c r="J4" s="14" t="n"/>
       <c r="K4" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:05:59</t>
+          <t>2023-12-28 17:50:45</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="J5" s="14" t="n"/>
       <c r="K5" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:05:59</t>
+          <t>2023-12-28 17:50:45</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
       <c r="J6" s="14" t="n"/>
       <c r="K6" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:05:59</t>
+          <t>2023-12-28 17:50:45</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="J7" s="14" t="n"/>
       <c r="K7" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:05:59</t>
+          <t>2023-12-28 17:50:45</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       <c r="J8" s="14" t="n"/>
       <c r="K8" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:05:59</t>
+          <t>2023-12-28 17:50:45</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,11 @@
           <t>si</t>
         </is>
       </c>
-      <c r="J9" s="14" t="n"/>
+      <c r="J9" s="14" t="inlineStr">
+        <is>
+          <t>2023-12-28 17:50:45</t>
+        </is>
+      </c>
       <c r="K9" s="18" t="n"/>
     </row>
     <row r="10" ht="12.75" customHeight="1" s="11">

--- a/clients.xlsx
+++ b/clients.xlsx
@@ -644,7 +644,7 @@
       <c r="J2" s="14" t="n"/>
       <c r="K2" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:50:45</t>
+          <t>2023-12-28 18:00:28</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       <c r="J3" s="14" t="n"/>
       <c r="K3" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:50:45</t>
+          <t>2023-12-28 18:00:28</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       <c r="J4" s="14" t="n"/>
       <c r="K4" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:50:45</t>
+          <t>2023-12-28 18:00:28</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="J5" s="14" t="n"/>
       <c r="K5" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:50:45</t>
+          <t>2023-12-28 18:00:28</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
       <c r="J6" s="14" t="n"/>
       <c r="K6" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:50:45</t>
+          <t>2023-12-28 18:00:28</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="J7" s="14" t="n"/>
       <c r="K7" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:50:45</t>
+          <t>2023-12-28 18:00:28</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       <c r="J8" s="14" t="n"/>
       <c r="K8" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:50:45</t>
+          <t>2023-12-28 18:00:28</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="J9" s="14" t="inlineStr">
         <is>
-          <t>2023-12-28 17:50:45</t>
+          <t>2023-12-28 18:00:28</t>
         </is>
       </c>
       <c r="K9" s="18" t="n"/>

--- a/clients.xlsx
+++ b/clients.xlsx
@@ -644,7 +644,7 @@
       <c r="J2" s="14" t="n"/>
       <c r="K2" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 18:00:28</t>
+          <t>2023-12-28 18:02:23</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       <c r="J3" s="14" t="n"/>
       <c r="K3" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 18:00:28</t>
+          <t>2023-12-28 18:02:23</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       <c r="J4" s="14" t="n"/>
       <c r="K4" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 18:00:28</t>
+          <t>2023-12-28 18:02:23</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="J5" s="14" t="n"/>
       <c r="K5" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 18:00:28</t>
+          <t>2023-12-28 18:02:23</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
       <c r="J6" s="14" t="n"/>
       <c r="K6" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 18:00:28</t>
+          <t>2023-12-28 18:02:23</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="J7" s="14" t="n"/>
       <c r="K7" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 18:00:28</t>
+          <t>2023-12-28 18:02:23</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       <c r="J8" s="14" t="n"/>
       <c r="K8" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 18:00:28</t>
+          <t>2023-12-28 18:02:23</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="J9" s="14" t="inlineStr">
         <is>
-          <t>2023-12-28 18:00:28</t>
+          <t>2023-12-28 18:02:23</t>
         </is>
       </c>
       <c r="K9" s="18" t="n"/>
